--- a/Data/Temp/Yearly-Report-2021-FR065748.xlsx
+++ b/Data/Temp/Yearly-Report-2021-FR065748.xlsx
@@ -14,14 +14,110 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <x:si>
+    <x:t>798050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waste management services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113734</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22746.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>136481</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>669593</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beverages and Catering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>177128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35425.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>212554</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>729240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Concierge Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>134130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26826</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160956</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>327651</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Various paper supplies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66712</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13342.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80054.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>344123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62071</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12414.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74485.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-07</x:t>
+  </x:si>
   <x:si>
     <x:t>817818</x:t>
   </x:si>
   <x:si>
-    <x:t>Concierge Services</x:t>
-  </x:si>
-  <x:si>
     <x:t>145432</x:t>
   </x:si>
   <x:si>
@@ -31,88 +127,7 @@
     <x:t>174518</x:t>
   </x:si>
   <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
     <x:t>2017-09-17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>669593</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beverages and Catering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>177128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35425.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>212554</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>729240</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26826</x:t>
-  </x:si>
-  <x:si>
-    <x:t>160956</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>327651</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Various paper supplies</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66712</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13342.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80054.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EUR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>344123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waste management services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62071</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12414.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74485.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-07-07</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -520,53 +535,53 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>29</x:v>
@@ -578,7 +593,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
         <x:v>32</x:v>
@@ -586,25 +601,163 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="A7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="A8" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="A9" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="A10" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="G10" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="A11" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="A12" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
